--- a/DateBase/orders/name004_2024-9-19.xlsx
+++ b/DateBase/orders/name004_2024-9-19.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -452,9 +452,14 @@
         <v>12</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L2"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L3"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -509,7 +514,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>012</v>
+        <v>0120</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/name004_2024-9-19.xlsx
+++ b/DateBase/orders/name004_2024-9-19.xlsx
@@ -454,7 +454,7 @@
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>1</v>
+        <v/>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/name004_2024-9-19.xlsx
+++ b/DateBase/orders/name004_2024-9-19.xlsx
@@ -456,6 +456,9 @@
       <c r="A3" t="str">
         <v/>
       </c>
+      <c r="C3" t="str">
+        <v>3_波浪白洋桔梗_Wavy White Lisianthus_Eustoma grandiflorum (Raf.) Shinners</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>

--- a/DateBase/orders/name004_2024-9-19.xlsx
+++ b/DateBase/orders/name004_2024-9-19.xlsx
@@ -459,6 +459,9 @@
       <c r="C3" t="str">
         <v>3_波浪白洋桔梗_Wavy White Lisianthus_Eustoma grandiflorum (Raf.) Shinners</v>
       </c>
+      <c r="F3" t="str">
+        <v>13</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -517,7 +520,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>0120</v>
+        <v>01213</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/name004_2024-9-19.xlsx
+++ b/DateBase/orders/name004_2024-9-19.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -463,9 +463,14 @@
         <v>13</v>
       </c>
     </row>
+    <row r="4">
+      <c r="C4" t="str">
+        <v>3_波浪白洋桔梗_Wavy White Lisianthus_Eustoma grandiflorum (Raf.) Shinners</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L3"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L4"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -520,7 +525,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>01213</v>
+        <v>012130</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/name004_2024-9-19.xlsx
+++ b/DateBase/orders/name004_2024-9-19.xlsx
@@ -467,6 +467,9 @@
       <c r="C4" t="str">
         <v>3_波浪白洋桔梗_Wavy White Lisianthus_Eustoma grandiflorum (Raf.) Shinners</v>
       </c>
+      <c r="F4" t="str">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -525,7 +528,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>012130</v>
+        <v>012131</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/name004_2024-9-19.xlsx
+++ b/DateBase/orders/name004_2024-9-19.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L4"/>
+  <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -468,12 +468,17 @@
         <v>3_波浪白洋桔梗_Wavy White Lisianthus_Eustoma grandiflorum (Raf.) Shinners</v>
       </c>
       <c r="F4" t="str">
-        <v>1</v>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L4"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L5"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -528,7 +533,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>012131</v>
+        <v>01213140</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/name004_2024-9-19.xlsx
+++ b/DateBase/orders/name004_2024-9-19.xlsx
@@ -475,6 +475,9 @@
       <c r="A5" t="str">
         <v>2</v>
       </c>
+      <c r="C5" t="str">
+        <v>5_绿洋桔梗_Light Green Lisianthus_Eustoma grandiflorum (Raf.) Shinners</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>

--- a/DateBase/orders/name004_2024-9-19.xlsx
+++ b/DateBase/orders/name004_2024-9-19.xlsx
@@ -478,6 +478,9 @@
       <c r="C5" t="str">
         <v>5_绿洋桔梗_Light Green Lisianthus_Eustoma grandiflorum (Raf.) Shinners</v>
       </c>
+      <c r="F5" t="str">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -536,7 +539,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>01213140</v>
+        <v>01213141</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/name004_2024-9-19.xlsx
+++ b/DateBase/orders/name004_2024-9-19.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L5"/>
+  <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -479,12 +479,17 @@
         <v>5_绿洋桔梗_Light Green Lisianthus_Eustoma grandiflorum (Raf.) Shinners</v>
       </c>
       <c r="F5" t="str">
-        <v>1</v>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="C6" t="str">
+        <v>3_波浪白洋桔梗_Wavy White Lisianthus_Eustoma grandiflorum (Raf.) Shinners</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L5"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L6"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -539,7 +544,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>01213141</v>
+        <v>0121314150</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/name004_2024-9-19.xlsx
+++ b/DateBase/orders/name004_2024-9-19.xlsx
@@ -486,6 +486,9 @@
       <c r="C6" t="str">
         <v>3_波浪白洋桔梗_Wavy White Lisianthus_Eustoma grandiflorum (Raf.) Shinners</v>
       </c>
+      <c r="F6" t="str">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -544,7 +547,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>0121314150</v>
+        <v>0121314151</v>
       </c>
     </row>
   </sheetData>
